--- a/Data/EC/NIT-8305029396.xlsx
+++ b/Data/EC/NIT-8305029396.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF5D8A17-4D8A-475F-B61B-73482A1CDDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE11B759-47AE-4918-9BD6-FBF4BFC6FC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2EC12787-D28F-4313-94DC-366A3F0E2F55}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C351319C-0AA6-4350-8188-E8CDA6DB3441}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,30 @@
     <t>CC</t>
   </si>
   <si>
+    <t>30873761</t>
+  </si>
+  <si>
+    <t>YUDIS DEL CARMEN ALCALA GONZALEZ</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>8853895</t>
+  </si>
+  <si>
+    <t>JAVIER ALFONSO CABRERA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>7919865</t>
+  </si>
+  <si>
+    <t>RONALD ISAAC PEREIRA SALCEDO</t>
+  </si>
+  <si>
     <t>1002191794</t>
   </si>
   <si>
@@ -74,40 +98,16 @@
     <t>2208</t>
   </si>
   <si>
-    <t>8853895</t>
-  </si>
-  <si>
-    <t>JAVIER ALFONSO CABRERA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>7919865</t>
-  </si>
-  <si>
-    <t>RONALD ISAAC PEREIRA SALCEDO</t>
-  </si>
-  <si>
-    <t>30873761</t>
-  </si>
-  <si>
-    <t>YUDIS DEL CARMEN ALCALA GONZALEZ</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
     <t>1143397115</t>
   </si>
   <si>
     <t>JHON ANDERSON MOSCOTE BATISTA</t>
   </si>
   <si>
+    <t>2305</t>
+  </si>
+  <si>
     <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
   </si>
   <si>
     <t>1050483619</t>
@@ -530,7 +530,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5D2C38-5203-248C-76B2-8E4BC59EA8EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147B74F3-7E94-FA64-8F54-702F589DDEF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -881,7 +881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BD9417-1171-4FC3-A4D9-CC810C7EBAEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA2438D-8A07-49BF-8AC4-239FDB64B1E3}">
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1128,10 +1128,10 @@
         <v>19</v>
       </c>
       <c r="F19" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1151,7 +1151,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="18">
-        <v>30934</v>
+        <v>17013</v>
       </c>
       <c r="G20" s="18">
         <v>1160000</v>
@@ -1174,7 +1174,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="18">
-        <v>17013</v>
+        <v>30934</v>
       </c>
       <c r="G21" s="18">
         <v>1160000</v>
